--- a/data/trans_bre/P22_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.014600594063873</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5080071374532188</v>
+        <v>0.508007137453219</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.26776166295834</v>
+        <v>-1.343516116910275</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.718632913091955</v>
+        <v>-2.699743655670248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1072625164938279</v>
+        <v>-0.01424866217678455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7521095746623184</v>
+        <v>-0.8946473359664737</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4325369230002662</v>
+        <v>-0.4476884010102</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6542666682591459</v>
+        <v>-0.6537508186296647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1537454587617434</v>
+        <v>-0.1940012214434841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2528139743539902</v>
+        <v>-0.2326784102848707</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.035501559206739</v>
+        <v>2.02420824531417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2630544256794962</v>
+        <v>0.3736306119503117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.779627142066495</v>
+        <v>1.80234245411976</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.313734425812556</v>
+        <v>3.214758815036369</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.628074701769799</v>
+        <v>1.558335014876974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1298898420588815</v>
+        <v>0.1939179511815335</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.494891329076435</v>
+        <v>3.619246934451086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.973091279377082</v>
+        <v>1.991918437448204</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.615236822705273</v>
+        <v>-3.799302377770933</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.412185420608164</v>
+        <v>-1.37520189547989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4044018089359421</v>
+        <v>-0.4314585788822437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7496162437496314</v>
+        <v>0.6887963437154413</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.593705261097643</v>
+        <v>-0.6222315232828234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3311759685607564</v>
+        <v>-0.3111613882518338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1350257179438551</v>
+        <v>-0.1518417185551674</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1294992976222608</v>
+        <v>0.1387839289995818</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.2366217356456083</v>
+        <v>-0.3195237344984295</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.782825259285749</v>
+        <v>1.846285573792568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.893410760223897</v>
+        <v>3.05704011138619</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.378357676473117</v>
+        <v>4.369792420647118</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01307195915879305</v>
+        <v>-0.06262584787266963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6744291008616015</v>
+        <v>0.701146410703103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.570827491915107</v>
+        <v>1.581152742681366</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.465331423638301</v>
+        <v>1.524684146602952</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.4716174775540698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.13555750605961</v>
+        <v>2.135557506059613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2229404962616909</v>
@@ -849,7 +849,7 @@
         <v>-0.08821479967742017</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.254781194255329</v>
+        <v>0.2547811942553293</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.140602965275475</v>
+        <v>-3.83462077941885</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.980412890267276</v>
+        <v>-2.031523521709369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.854972583750754</v>
+        <v>-2.617074010773106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1927391708997142</v>
+        <v>-0.5733368609266697</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4912093901126111</v>
+        <v>-0.4485306328176739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2940576017165331</v>
+        <v>-0.3040458474027642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4158360235924091</v>
+        <v>-0.4072591030080248</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02319670683894771</v>
+        <v>-0.06009320766320686</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.578609643422073</v>
+        <v>0.6105446144804577</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.515959616221294</v>
+        <v>2.474977778749351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.737108832836012</v>
+        <v>1.498373934778892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.49309639497268</v>
+        <v>4.49170382452841</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09954896930213727</v>
+        <v>0.1033764696000717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5598652963448267</v>
+        <v>0.5720122034224311</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4416503251317327</v>
+        <v>0.363405549202526</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6596111432169297</v>
+        <v>0.6339705361317831</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.771558935899229</v>
+        <v>-3.053015949808271</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.18995754818675</v>
+        <v>-3.89872290026621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.693054907387915</v>
+        <v>-1.541806999216236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.600402701953161</v>
+        <v>-4.64387632891994</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1673796247933337</v>
+        <v>-0.1937814390213769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4382926832449731</v>
+        <v>-0.4184568252776321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1608387402351063</v>
+        <v>-0.1893710155159271</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2033266168145317</v>
+        <v>-0.2001905640461294</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.803403124172808</v>
+        <v>7.519837650556801</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.092784219707382</v>
+        <v>3.320070195935183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.18876991288275</v>
+        <v>6.565199232222062</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.106426110383137</v>
+        <v>2.785618333004073</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6267754049860751</v>
+        <v>0.60759571095575</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5121572418079459</v>
+        <v>0.5328275465827241</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9460026875477121</v>
+        <v>0.9228977248083893</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1638744645524106</v>
+        <v>0.1453239610632528</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.7073205131220575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6755513969829402</v>
+        <v>0.6755513969829388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2227166955699564</v>
@@ -1049,7 +1049,7 @@
         <v>0.1961132189294866</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.06894101614089151</v>
+        <v>0.06894101614089138</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.713864528361005</v>
+        <v>-2.556083465230763</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.481706173981878</v>
+        <v>-1.537163208817601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3520707693192351</v>
+        <v>-0.3170874993919773</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.755199122710372</v>
+        <v>-0.8804713937428182</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3634913761543528</v>
+        <v>-0.3542846063026733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2931758853577384</v>
+        <v>-0.299909252129718</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08224203612406154</v>
+        <v>-0.08134715488561484</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0723622696812955</v>
+        <v>-0.07980467017255548</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3590979958161635</v>
+        <v>-0.2563127996153294</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5328886142294185</v>
+        <v>0.5682641321542174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.713695990659272</v>
+        <v>1.650031495664995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.111544429310209</v>
+        <v>2.048305310459591</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05474309389213661</v>
+        <v>-0.0468474131571632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1324881892863201</v>
+        <v>0.1464698079000974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5445939610203456</v>
+        <v>0.5094290924986199</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2414114063450168</v>
+        <v>0.2272318438924426</v>
       </c>
     </row>
     <row r="19">
